--- a/doc/Wykres.xlsx
+++ b/doc/Wykres.xlsx
@@ -15,6 +15,9 @@
     <definedName name="_1" localSheetId="0">Arkusz1!$C$2:$CX$3</definedName>
     <definedName name="_2" localSheetId="1">Arkusz2!$B$2:$CZ$3</definedName>
     <definedName name="_3" localSheetId="1">Arkusz2!$B$5:$CW$6</definedName>
+    <definedName name="_4" localSheetId="1">Arkusz2!$B$9:$CW$11</definedName>
+    <definedName name="_5" localSheetId="1">Arkusz2!$B$12:$CW$15</definedName>
+    <definedName name="_6" localSheetId="1">Arkusz2!$B$16:$CW$18</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -239,6 +242,324 @@
   </connection>
   <connection id="3" name="3" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="852" sourceFile="D:\Prywatny\studia\msi2\Fourinarow\3.txt" decimal="," thousands=" " space="1" consecutive="1">
+      <textFields count="100">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="4" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Prywatny\studia\msi2\Fourinarow\4.txt" decimal="," thousands=" " space="1" consecutive="1">
+      <textFields count="100">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="5" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Prywatny\studia\msi2\Fourinarow\5.txt" decimal="," thousands=" " space="1" consecutive="1">
+      <textFields count="100">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="6" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="D:\Prywatny\studia\msi2\Fourinarow\6.txt" decimal="," thousands=" " space="1" consecutive="1">
       <textFields count="100">
         <textField/>
         <textField/>
@@ -2829,6 +3150,1920 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.23699999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$4:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.18099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.25600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.182</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.36299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.35499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.20100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$G$4:$G$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.48899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.40899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.53800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.34399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.52400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.41599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.46700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.48299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$4:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$H$4:$H$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.129</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.224</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.115</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.377</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.23300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.308</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.373</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.46800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.413333333333333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.31900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.35599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.36799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.30099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.33700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.20799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3014,10 +5249,22 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="6" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="5" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="4" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -3310,8 +5557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3370,6 +5617,15 @@
       <c r="E4">
         <v>0.184</v>
       </c>
+      <c r="F4">
+        <v>0.159</v>
+      </c>
+      <c r="G4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H4">
+        <v>7.4999999999999997E-2</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -3384,6 +5640,15 @@
       <c r="E5">
         <v>0.23799999999999999</v>
       </c>
+      <c r="F5">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G5">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H5">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
@@ -3398,6 +5663,15 @@
       <c r="E6">
         <v>0.19400000000000001</v>
       </c>
+      <c r="F6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G6">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H6">
+        <v>6.5000000000000002E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -3412,6 +5686,15 @@
       <c r="E7">
         <v>0.23100000000000001</v>
       </c>
+      <c r="F7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H7">
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -3426,6 +5709,15 @@
       <c r="E8">
         <v>0.23100000000000001</v>
       </c>
+      <c r="F8">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>3.5999999999999997E-2</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -3440,6 +5732,15 @@
       <c r="E9">
         <v>0.2</v>
       </c>
+      <c r="F9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H9">
+        <v>5.0999999999999997E-2</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -3454,6 +5755,15 @@
       <c r="E10">
         <v>0.21099999999999999</v>
       </c>
+      <c r="F10">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H10">
+        <v>8.5000000000000006E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -3468,6 +5778,15 @@
       <c r="E11">
         <v>0.245</v>
       </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H11">
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -3482,6 +5801,15 @@
       <c r="E12">
         <v>0.21299999999999999</v>
       </c>
+      <c r="F12">
+        <v>0.105</v>
+      </c>
+      <c r="G12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H12">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -3496,6 +5824,15 @@
       <c r="E13">
         <v>0.22800000000000001</v>
       </c>
+      <c r="F13">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="G13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H13">
+        <v>8.3000000000000004E-2</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -3510,6 +5847,15 @@
       <c r="E14">
         <v>0.215</v>
       </c>
+      <c r="F14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G14">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H14">
+        <v>6.9000000000000006E-2</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -3524,6 +5870,15 @@
       <c r="E15">
         <v>0.27700000000000002</v>
       </c>
+      <c r="F15">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G15">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>0.318</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -3538,8 +5893,17 @@
       <c r="E16">
         <v>0.33400000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0.31</v>
+      </c>
+      <c r="G16">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H16">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>140</v>
       </c>
@@ -3552,8 +5916,17 @@
       <c r="E17">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G17">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>150</v>
       </c>
@@ -3566,8 +5939,17 @@
       <c r="E18">
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.17</v>
+      </c>
+      <c r="G18">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>160</v>
       </c>
@@ -3580,8 +5962,17 @@
       <c r="E19">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>170</v>
       </c>
@@ -3594,8 +5985,17 @@
       <c r="E20">
         <v>0.248</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0.219</v>
+      </c>
+      <c r="G20">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>180</v>
       </c>
@@ -3608,8 +6008,17 @@
       <c r="E21">
         <v>0.24299999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0.253</v>
+      </c>
+      <c r="G21">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="H21">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>190</v>
       </c>
@@ -3622,8 +6031,17 @@
       <c r="E22">
         <v>0.191</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>0.251</v>
+      </c>
+      <c r="G22">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>200</v>
       </c>
@@ -3636,8 +6054,17 @@
       <c r="E23">
         <v>0.19900000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="G23">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>210</v>
       </c>
@@ -3650,8 +6077,17 @@
       <c r="E24">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G24">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>220</v>
       </c>
@@ -3664,8 +6100,17 @@
       <c r="E25">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>230</v>
       </c>
@@ -3678,8 +6123,17 @@
       <c r="E26">
         <v>0.23899999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G26">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H26">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>240</v>
       </c>
@@ -3692,8 +6146,17 @@
       <c r="E27">
         <v>0.26200000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>250</v>
       </c>
@@ -3706,8 +6169,17 @@
       <c r="E28">
         <v>0.36399999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>260</v>
       </c>
@@ -3720,8 +6192,17 @@
       <c r="E29">
         <v>0.314</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0.252</v>
+      </c>
+      <c r="G29">
+        <v>0.09</v>
+      </c>
+      <c r="H29">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>270</v>
       </c>
@@ -3734,8 +6215,17 @@
       <c r="E30">
         <v>0.36599999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0.182</v>
+      </c>
+      <c r="G30">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="H30">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>280</v>
       </c>
@@ -3748,8 +6238,17 @@
       <c r="E31">
         <v>0.38900000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0.21</v>
+      </c>
+      <c r="G31">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>290</v>
       </c>
@@ -3762,8 +6261,17 @@
       <c r="E32">
         <v>0.35599999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0.245</v>
+      </c>
+      <c r="G32">
+        <v>0.219</v>
+      </c>
+      <c r="H32">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>300</v>
       </c>
@@ -3776,8 +6284,17 @@
       <c r="E33">
         <v>0.41399999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.151</v>
+      </c>
+      <c r="H33">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>310</v>
       </c>
@@ -3790,8 +6307,17 @@
       <c r="E34">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>320</v>
       </c>
@@ -3804,8 +6330,17 @@
       <c r="E35">
         <v>0.39800000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G35">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="H35">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>330</v>
       </c>
@@ -3818,8 +6353,17 @@
       <c r="E36">
         <v>0.435</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0.221</v>
+      </c>
+      <c r="G36">
+        <v>0.218</v>
+      </c>
+      <c r="H36">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>340</v>
       </c>
@@ -3832,8 +6376,17 @@
       <c r="E37">
         <v>0.42899999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="G37">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="H37">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>350</v>
       </c>
@@ -3846,8 +6399,17 @@
       <c r="E38">
         <v>0.42899999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="H38">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>360</v>
       </c>
@@ -3860,8 +6422,17 @@
       <c r="E39">
         <v>0.41099999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0.245</v>
+      </c>
+      <c r="G39">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H39">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>370</v>
       </c>
@@ -3874,8 +6445,17 @@
       <c r="E40">
         <v>0.309</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0.191</v>
+      </c>
+      <c r="G40">
+        <v>0.17</v>
+      </c>
+      <c r="H40">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>380</v>
       </c>
@@ -3888,8 +6468,17 @@
       <c r="E41">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G41">
+        <v>0.123</v>
+      </c>
+      <c r="H41">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>390</v>
       </c>
@@ -3902,8 +6491,17 @@
       <c r="E42">
         <v>0.47199999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G42">
+        <v>0.21</v>
+      </c>
+      <c r="H42">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>400</v>
       </c>
@@ -3916,8 +6514,17 @@
       <c r="E43">
         <v>0.45100000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>410</v>
       </c>
@@ -3930,8 +6537,17 @@
       <c r="E44">
         <v>0.432</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0.09</v>
+      </c>
+      <c r="G44">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H44">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>420</v>
       </c>
@@ -3944,8 +6560,17 @@
       <c r="E45">
         <v>0.41399999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>0.08</v>
+      </c>
+      <c r="G45">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>430</v>
       </c>
@@ -3958,8 +6583,17 @@
       <c r="E46">
         <v>0.41199999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>0.08</v>
+      </c>
+      <c r="G46">
+        <v>0.254</v>
+      </c>
+      <c r="H46">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>440</v>
       </c>
@@ -3972,8 +6606,17 @@
       <c r="E47">
         <v>0.437</v>
       </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>0.18</v>
+      </c>
+      <c r="G47">
+        <v>0.31</v>
+      </c>
+      <c r="H47">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>450</v>
       </c>
@@ -3986,8 +6629,17 @@
       <c r="E48">
         <v>0.435</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>0.18</v>
+      </c>
+      <c r="G48">
+        <v>0.308</v>
+      </c>
+      <c r="H48">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>460</v>
       </c>
@@ -4000,8 +6652,17 @@
       <c r="E49">
         <v>0.441</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.433</v>
+      </c>
+      <c r="H49">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>470</v>
       </c>
@@ -4014,8 +6675,17 @@
       <c r="E50">
         <v>0.34799999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G50">
+        <v>0.223</v>
+      </c>
+      <c r="H50">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>480</v>
       </c>
@@ -4028,8 +6698,17 @@
       <c r="E51">
         <v>0.41699999999999998</v>
       </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G51">
+        <v>0.24</v>
+      </c>
+      <c r="H51">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>490</v>
       </c>
@@ -4042,8 +6721,17 @@
       <c r="E52">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G52">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="H52">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>500</v>
       </c>
@@ -4056,8 +6744,17 @@
       <c r="E53">
         <v>0.40100000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>0.221</v>
+      </c>
+      <c r="G53">
+        <v>0.377</v>
+      </c>
+      <c r="H53">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>510</v>
       </c>
@@ -4070,8 +6767,17 @@
       <c r="E54">
         <v>0.38100000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G54">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H54">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>520</v>
       </c>
@@ -4084,8 +6790,17 @@
       <c r="E55">
         <v>0.42299999999999999</v>
       </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="G55">
+        <v>0.441</v>
+      </c>
+      <c r="H55">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>530</v>
       </c>
@@ -4098,8 +6813,17 @@
       <c r="E56">
         <v>0.374</v>
       </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>0.182</v>
+      </c>
+      <c r="G56">
+        <v>0.373</v>
+      </c>
+      <c r="H56">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>540</v>
       </c>
@@ -4112,8 +6836,17 @@
       <c r="E57">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>0.252</v>
+      </c>
+      <c r="G57">
+        <v>0.317</v>
+      </c>
+      <c r="H57">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>550</v>
       </c>
@@ -4126,8 +6859,17 @@
       <c r="E58">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.318</v>
+      </c>
+      <c r="H58">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>560</v>
       </c>
@@ -4140,8 +6882,17 @@
       <c r="E59">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="G59">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="H59">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>570</v>
       </c>
@@ -4154,8 +6905,17 @@
       <c r="E60">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G60">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="H60">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>580</v>
       </c>
@@ -4168,8 +6928,17 @@
       <c r="E61">
         <v>0.46700000000000003</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G61">
+        <v>0.47</v>
+      </c>
+      <c r="H61">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>590</v>
       </c>
@@ -4182,8 +6951,17 @@
       <c r="E62">
         <v>0.47099999999999997</v>
       </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="G62">
+        <v>0.51</v>
+      </c>
+      <c r="H62">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>600</v>
       </c>
@@ -4196,8 +6974,17 @@
       <c r="E63">
         <v>0.41899999999999998</v>
       </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G63">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="H63">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>610</v>
       </c>
@@ -4210,8 +6997,17 @@
       <c r="E64">
         <v>0.435</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G64">
+        <v>0.41</v>
+      </c>
+      <c r="H64">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>620</v>
       </c>
@@ -4224,8 +7020,17 @@
       <c r="E65">
         <v>0.41399999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G65">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H65">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>630</v>
       </c>
@@ -4238,8 +7043,17 @@
       <c r="E66">
         <v>0.29899999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>0.108</v>
+      </c>
+      <c r="G66">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H66">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>640</v>
       </c>
@@ -4252,8 +7066,17 @@
       <c r="E67">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G67">
+        <v>0.37</v>
+      </c>
+      <c r="H67">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>650</v>
       </c>
@@ -4266,8 +7089,17 @@
       <c r="E68">
         <v>0.42199999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>0.121</v>
+      </c>
+      <c r="G68">
+        <v>0.498</v>
+      </c>
+      <c r="H68">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>660</v>
       </c>
@@ -4280,8 +7112,17 @@
       <c r="E69">
         <v>0.44500000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="H69">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>670</v>
       </c>
@@ -4294,8 +7135,17 @@
       <c r="E70">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G70">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="H70">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>680</v>
       </c>
@@ -4308,8 +7158,17 @@
       <c r="E71">
         <v>0.314</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="G71">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H71">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>690</v>
       </c>
@@ -4322,8 +7181,17 @@
       <c r="E72">
         <v>0.437</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G72">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H72">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>700</v>
       </c>
@@ -4336,8 +7204,17 @@
       <c r="E73">
         <v>0.35599999999999998</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>0.315</v>
+      </c>
+      <c r="G73">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H73">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>710</v>
       </c>
@@ -4350,8 +7227,17 @@
       <c r="E74">
         <v>0.27400000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="G74">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="H74">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>720</v>
       </c>
@@ -4364,8 +7250,17 @@
       <c r="E75">
         <v>0.28299999999999997</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G75">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="H75">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>730</v>
       </c>
@@ -4378,8 +7273,17 @@
       <c r="E76">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>0.312</v>
+      </c>
+      <c r="G76">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="H76">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>740</v>
       </c>
@@ -4392,8 +7296,17 @@
       <c r="E77">
         <v>0.25900000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>0.15</v>
+      </c>
+      <c r="G77">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H77">
+        <v>0.22900000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>750</v>
       </c>
@@ -4406,8 +7319,17 @@
       <c r="E78">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G78">
+        <v>0.19</v>
+      </c>
+      <c r="H78">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>760</v>
       </c>
@@ -4420,8 +7342,17 @@
       <c r="E79">
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G79">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H79">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>770</v>
       </c>
@@ -4434,8 +7365,17 @@
       <c r="E80">
         <v>0.25900000000000001</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="G80">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="H80">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>780</v>
       </c>
@@ -4448,8 +7388,17 @@
       <c r="E81">
         <v>0.22800000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G81">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H81">
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>790</v>
       </c>
@@ -4462,8 +7411,17 @@
       <c r="E82">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H82">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>800</v>
       </c>
@@ -4476,8 +7434,17 @@
       <c r="E83">
         <v>0.24399999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G83">
+        <v>0.38</v>
+      </c>
+      <c r="H83">
+        <v>0.413333333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>810</v>
       </c>
@@ -4490,8 +7457,17 @@
       <c r="E84">
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G84">
+        <v>0.309</v>
+      </c>
+      <c r="H84">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>820</v>
       </c>
@@ -4504,8 +7480,17 @@
       <c r="E85">
         <v>0.255</v>
       </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="G85">
+        <v>0.34</v>
+      </c>
+      <c r="H85">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>830</v>
       </c>
@@ -4518,8 +7503,17 @@
       <c r="E86">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>0.184</v>
+      </c>
+      <c r="G86">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H86">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>840</v>
       </c>
@@ -4532,8 +7526,17 @@
       <c r="E87">
         <v>0.222</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="G87">
+        <v>0.433</v>
+      </c>
+      <c r="H87">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>850</v>
       </c>
@@ -4546,8 +7549,17 @@
       <c r="E88">
         <v>0.23400000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G88">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H88">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>860</v>
       </c>
@@ -4560,8 +7572,17 @@
       <c r="E89">
         <v>0.248</v>
       </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>0.309</v>
+      </c>
+      <c r="G89">
+        <v>0.434</v>
+      </c>
+      <c r="H89">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>870</v>
       </c>
@@ -4574,8 +7595,17 @@
       <c r="E90">
         <v>0.36499999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>0.311</v>
+      </c>
+      <c r="G90">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="H90">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>880</v>
       </c>
@@ -4588,8 +7618,17 @@
       <c r="E91">
         <v>0.26400000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="G91">
+        <v>0.432</v>
+      </c>
+      <c r="H91">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>890</v>
       </c>
@@ -4602,8 +7641,17 @@
       <c r="E92">
         <v>0.27900000000000003</v>
       </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>0.245</v>
+      </c>
+      <c r="G92">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="H92">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>900</v>
       </c>
@@ -4616,8 +7664,17 @@
       <c r="E93">
         <v>0.26800000000000002</v>
       </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G93">
+        <v>0.31</v>
+      </c>
+      <c r="H93">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>910</v>
       </c>
@@ -4630,8 +7687,17 @@
       <c r="E94">
         <v>0.254</v>
       </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G94">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="H94">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>920</v>
       </c>
@@ -4644,8 +7710,17 @@
       <c r="E95">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>0.21</v>
+      </c>
+      <c r="G95">
+        <v>0.36</v>
+      </c>
+      <c r="H95">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>930</v>
       </c>
@@ -4658,8 +7733,17 @@
       <c r="E96">
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="G96">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="H96">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>940</v>
       </c>
@@ -4672,8 +7756,17 @@
       <c r="E97">
         <v>0.33600000000000002</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="H97">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>950</v>
       </c>
@@ -4686,8 +7779,17 @@
       <c r="E98">
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>0.432</v>
+      </c>
+      <c r="G98">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="H98">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>960</v>
       </c>
@@ -4700,8 +7802,17 @@
       <c r="E99">
         <v>0.27700000000000002</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="G99">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="H99">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>970</v>
       </c>
@@ -4714,8 +7825,17 @@
       <c r="E100">
         <v>0.30199999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>0.11</v>
+      </c>
+      <c r="G100">
+        <v>0.439</v>
+      </c>
+      <c r="H100">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>980</v>
       </c>
@@ -4728,8 +7848,17 @@
       <c r="E101">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>0.15</v>
+      </c>
+      <c r="G101">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="H101">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>990</v>
       </c>
@@ -4742,8 +7871,17 @@
       <c r="E102">
         <v>0.26400000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="G102">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H102">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>1000</v>
       </c>
@@ -4755,6 +7893,15 @@
       </c>
       <c r="E103">
         <v>0.23699999999999999</v>
+      </c>
+      <c r="F103">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="G103">
+        <v>0.31</v>
+      </c>
+      <c r="H103">
+        <v>0.435</v>
       </c>
     </row>
   </sheetData>
@@ -4766,35 +7913,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:CZ5"/>
+  <dimension ref="B2:CZ16"/>
   <sheetViews>
-    <sheetView topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:CW5"/>
+    <sheetView topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BS26" sqref="BS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" customWidth="1"/>
+    <col min="17" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.5703125" customWidth="1"/>
-    <col min="24" max="31" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.5703125" customWidth="1"/>
-    <col min="33" max="38" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.5703125" customWidth="1"/>
-    <col min="40" max="49" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.5703125" customWidth="1"/>
+    <col min="28" max="28" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" customWidth="1"/>
+    <col min="30" max="31" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5703125" customWidth="1"/>
+    <col min="33" max="37" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="5.5703125" customWidth="1"/>
+    <col min="41" max="41" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.5703125" customWidth="1"/>
+    <col min="43" max="43" width="4.5703125" customWidth="1"/>
+    <col min="44" max="46" width="5.5703125" customWidth="1"/>
+    <col min="47" max="48" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.5703125" customWidth="1"/>
     <col min="50" max="50" width="4.5703125" customWidth="1"/>
-    <col min="51" max="54" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.5703125" customWidth="1"/>
-    <col min="56" max="56" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="4.5703125" customWidth="1"/>
-    <col min="59" max="64" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.5703125" customWidth="1"/>
-    <col min="66" max="67" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.5703125" customWidth="1"/>
-    <col min="69" max="92" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="4.5703125" customWidth="1"/>
-    <col min="94" max="104" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.5703125" customWidth="1"/>
+    <col min="54" max="54" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.5703125" customWidth="1"/>
+    <col min="56" max="56" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="5.5703125" customWidth="1"/>
+    <col min="58" max="58" width="4.5703125" customWidth="1"/>
+    <col min="59" max="60" width="5.5703125" customWidth="1"/>
+    <col min="61" max="61" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="5.5703125" customWidth="1"/>
+    <col min="63" max="64" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.5703125" customWidth="1"/>
+    <col min="66" max="66" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.5703125" customWidth="1"/>
+    <col min="68" max="68" width="5.5703125" customWidth="1"/>
+    <col min="69" max="69" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="5.5703125" customWidth="1"/>
+    <col min="71" max="74" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="5.5703125" customWidth="1"/>
+    <col min="77" max="80" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.85546875" customWidth="1"/>
+    <col min="82" max="82" width="4.5703125" customWidth="1"/>
+    <col min="83" max="83" width="5.5703125" customWidth="1"/>
+    <col min="84" max="85" width="4.5703125" customWidth="1"/>
+    <col min="86" max="86" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="4.5703125" customWidth="1"/>
+    <col min="88" max="90" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="5.5703125" customWidth="1"/>
+    <col min="92" max="92" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="5.5703125" customWidth="1"/>
+    <col min="94" max="97" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="5.5703125" customWidth="1"/>
+    <col min="100" max="100" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="5.5703125" customWidth="1"/>
+    <col min="102" max="104" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:104" x14ac:dyDescent="0.25">
@@ -5408,6 +8599,912 @@
       </c>
       <c r="CW5" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:104" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.159</v>
+      </c>
+      <c r="C9">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0.105</v>
+      </c>
+      <c r="K9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N9">
+        <v>0.31</v>
+      </c>
+      <c r="O9">
+        <v>5.5E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.17</v>
+      </c>
+      <c r="Q9">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.219</v>
+      </c>
+      <c r="S9">
+        <v>0.253</v>
+      </c>
+      <c r="T9">
+        <v>0.251</v>
+      </c>
+      <c r="U9">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="W9">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="X9">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="Y9">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0.252</v>
+      </c>
+      <c r="AB9">
+        <v>0.182</v>
+      </c>
+      <c r="AC9">
+        <v>0.21</v>
+      </c>
+      <c r="AD9">
+        <v>0.245</v>
+      </c>
+      <c r="AE9">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AH9">
+        <v>0.221</v>
+      </c>
+      <c r="AI9">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AJ9">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AK9">
+        <v>0.245</v>
+      </c>
+      <c r="AL9">
+        <v>0.191</v>
+      </c>
+      <c r="AM9">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AN9">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AO9">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="AP9">
+        <v>0.09</v>
+      </c>
+      <c r="AQ9">
+        <v>0.08</v>
+      </c>
+      <c r="AR9">
+        <v>0.08</v>
+      </c>
+      <c r="AS9">
+        <v>0.18</v>
+      </c>
+      <c r="AT9">
+        <v>0.18</v>
+      </c>
+      <c r="AU9">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AV9">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AW9">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AX9">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AY9">
+        <v>0.221</v>
+      </c>
+      <c r="AZ9">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="BA9">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="BB9">
+        <v>0.182</v>
+      </c>
+      <c r="BC9">
+        <v>0.252</v>
+      </c>
+      <c r="BD9">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="BE9">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="BF9">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="BG9">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="BH9">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="BI9">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="BJ9">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="BK9">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="BL9">
+        <v>0.108</v>
+      </c>
+      <c r="BM9">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="BN9">
+        <v>0.121</v>
+      </c>
+      <c r="BO9">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="BP9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="BQ9">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="BR9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="BS9">
+        <v>0.315</v>
+      </c>
+      <c r="BT9">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="BU9">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="BV9">
+        <v>0.312</v>
+      </c>
+      <c r="BW9">
+        <v>0.15</v>
+      </c>
+      <c r="BX9">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="BY9">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="BZ9">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="CA9">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="CB9">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="CC9">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="CD9">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="CE9">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="CF9">
+        <v>0.184</v>
+      </c>
+      <c r="CG9">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="CH9">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="CI9">
+        <v>0.309</v>
+      </c>
+      <c r="CJ9">
+        <v>0.311</v>
+      </c>
+      <c r="CK9">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="CL9">
+        <v>0.245</v>
+      </c>
+      <c r="CM9">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="CN9">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="CO9">
+        <v>0.21</v>
+      </c>
+      <c r="CP9">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="CQ9">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="CR9">
+        <v>0.432</v>
+      </c>
+      <c r="CS9">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="CT9">
+        <v>0.11</v>
+      </c>
+      <c r="CU9">
+        <v>0.15</v>
+      </c>
+      <c r="CV9">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="CW9">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:104" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C12">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="I12">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="M12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="O12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="R12">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="S12">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T12">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="U12">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="V12">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="W12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="X12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Y12">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="Z12">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="AA12">
+        <v>0.09</v>
+      </c>
+      <c r="AB12">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="AC12">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AD12">
+        <v>0.219</v>
+      </c>
+      <c r="AE12">
+        <v>0.151</v>
+      </c>
+      <c r="AF12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AG12">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="AH12">
+        <v>0.218</v>
+      </c>
+      <c r="AI12">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="AJ12">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AK12">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="AL12">
+        <v>0.17</v>
+      </c>
+      <c r="AM12">
+        <v>0.123</v>
+      </c>
+      <c r="AN12">
+        <v>0.21</v>
+      </c>
+      <c r="AO12">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AP12">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="AQ12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AR12">
+        <v>0.254</v>
+      </c>
+      <c r="AS12">
+        <v>0.31</v>
+      </c>
+      <c r="AT12">
+        <v>0.308</v>
+      </c>
+      <c r="AU12">
+        <v>0.433</v>
+      </c>
+      <c r="AV12">
+        <v>0.223</v>
+      </c>
+      <c r="AW12">
+        <v>0.24</v>
+      </c>
+      <c r="AX12">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AY12">
+        <v>0.377</v>
+      </c>
+      <c r="AZ12">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="BA12">
+        <v>0.441</v>
+      </c>
+      <c r="BB12">
+        <v>0.373</v>
+      </c>
+      <c r="BC12">
+        <v>0.317</v>
+      </c>
+      <c r="BD12">
+        <v>0.318</v>
+      </c>
+      <c r="BE12">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="BF12">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="BG12">
+        <v>0.47</v>
+      </c>
+      <c r="BH12">
+        <v>0.51</v>
+      </c>
+      <c r="BI12">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="BJ12">
+        <v>0.41</v>
+      </c>
+      <c r="BK12">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="BL12">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="BM12">
+        <v>0.37</v>
+      </c>
+      <c r="BN12">
+        <v>0.498</v>
+      </c>
+      <c r="BO12">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="BP12">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="BQ12">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="BR12">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="BS12">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="BT12">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="BU12">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="BV12">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="BW12">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="BX12">
+        <v>0.19</v>
+      </c>
+      <c r="BY12">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="BZ12">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="CA12">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="CB12">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="CC12">
+        <v>0.38</v>
+      </c>
+      <c r="CD12">
+        <v>0.309</v>
+      </c>
+      <c r="CE12">
+        <v>0.34</v>
+      </c>
+      <c r="CF12">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="CG12">
+        <v>0.433</v>
+      </c>
+      <c r="CH12">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="CI12">
+        <v>0.434</v>
+      </c>
+      <c r="CJ12">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="CK12">
+        <v>0.432</v>
+      </c>
+      <c r="CL12">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="CM12">
+        <v>0.31</v>
+      </c>
+      <c r="CN12">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="CO12">
+        <v>0.36</v>
+      </c>
+      <c r="CP12">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="CQ12">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="CR12">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="CS12">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="CT12">
+        <v>0.439</v>
+      </c>
+      <c r="CU12">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="CV12">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="CW12">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:104" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C16">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D16">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E16">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F16">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G16">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H16">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I16">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K16">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="L16">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="M16">
+        <v>0.318</v>
+      </c>
+      <c r="N16">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="O16">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P16">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="Q16">
+        <v>0.111</v>
+      </c>
+      <c r="R16">
+        <v>0.123</v>
+      </c>
+      <c r="S16">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="T16">
+        <v>0.155</v>
+      </c>
+      <c r="U16">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="V16">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="W16">
+        <v>0.11</v>
+      </c>
+      <c r="X16">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="Y16">
+        <v>0.129</v>
+      </c>
+      <c r="Z16">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AA16">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AB16">
+        <v>0.129</v>
+      </c>
+      <c r="AC16">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="AD16">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AE16">
+        <v>0.124</v>
+      </c>
+      <c r="AF16">
+        <v>0.127</v>
+      </c>
+      <c r="AG16">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="AH16">
+        <v>0.224</v>
+      </c>
+      <c r="AI16">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AJ16">
+        <v>0.186</v>
+      </c>
+      <c r="AK16">
+        <v>0.188</v>
+      </c>
+      <c r="AL16">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AM16">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AN16">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AO16">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="AP16">
+        <v>0.115</v>
+      </c>
+      <c r="AQ16">
+        <v>0.17</v>
+      </c>
+      <c r="AR16">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AS16">
+        <v>0.377</v>
+      </c>
+      <c r="AT16">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AU16">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AV16">
+        <v>0.245</v>
+      </c>
+      <c r="AW16">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="AX16">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AY16">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AZ16">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="BA16">
+        <v>0.35</v>
+      </c>
+      <c r="BB16">
+        <v>0.377</v>
+      </c>
+      <c r="BC16">
+        <v>0.317</v>
+      </c>
+      <c r="BD16">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="BE16">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="BF16">
+        <v>0.16</v>
+      </c>
+      <c r="BG16">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="BH16">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="BI16">
+        <v>0.308</v>
+      </c>
+      <c r="BJ16">
+        <v>0.192</v>
+      </c>
+      <c r="BK16">
+        <v>0.372</v>
+      </c>
+      <c r="BL16">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="BM16">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="BN16">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="BO16">
+        <v>0.26</v>
+      </c>
+      <c r="BP16">
+        <v>0.373</v>
+      </c>
+      <c r="BQ16">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="BR16">
+        <v>0.251</v>
+      </c>
+      <c r="BS16">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="BT16">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="BU16">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="BV16">
+        <v>0.253</v>
+      </c>
+      <c r="BW16">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="BX16">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="BY16">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="BZ16">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="CA16">
+        <v>0.249</v>
+      </c>
+      <c r="CB16">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="CC16">
+        <v>0.413333333333333</v>
+      </c>
+      <c r="CD16">
+        <v>0.25</v>
+      </c>
+      <c r="CE16">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="CF16">
+        <v>0.32</v>
+      </c>
+      <c r="CG16">
+        <v>0.32</v>
+      </c>
+      <c r="CH16">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="CI16">
+        <v>0.43</v>
+      </c>
+      <c r="CJ16">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="CK16">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="CL16">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="CM16">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="CN16">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="CO16">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="CP16">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="CQ16">
+        <v>0.437</v>
+      </c>
+      <c r="CR16">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="CS16">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="CT16">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="CU16">
+        <v>0.504</v>
+      </c>
+      <c r="CV16">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="CW16">
+        <v>0.435</v>
       </c>
     </row>
   </sheetData>
